--- a/Project/Tasks Details.xlsx
+++ b/Project/Tasks Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\stp-project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61741D-655E-408B-AC43-8BAFFF550ED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4666F-5398-4732-BC91-50CAFA419A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -60,9 +60,6 @@
     <t>N types of practice</t>
   </si>
   <si>
-    <t>DCT</t>
-  </si>
-  <si>
     <t>Emotional Reactivity</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Space</t>
   </si>
   <si>
-    <t>like DCT's</t>
-  </si>
-  <si>
     <t>Catch trials proportion</t>
   </si>
   <si>
@@ -148,6 +142,60 @@
   </si>
   <si>
     <t>Shifts R/L</t>
+  </si>
+  <si>
+    <t>5*2</t>
+  </si>
+  <si>
+    <t>5*1</t>
+  </si>
+  <si>
+    <t>15*2</t>
+  </si>
+  <si>
+    <t>DCT PRE</t>
+  </si>
+  <si>
+    <t>5(DCT PRE)*2</t>
+  </si>
+  <si>
+    <t>5(DCT POST)*1 +  5(Training)*1</t>
+  </si>
+  <si>
+    <t>10*4</t>
+  </si>
+  <si>
+    <t>10(Training)*4</t>
+  </si>
+  <si>
+    <t>3 (all 8 practice trials are practice 3)</t>
+  </si>
+  <si>
+    <t>2?</t>
+  </si>
+  <si>
+    <t>N blocks</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>6 (first 4 with feedback),2 (2 neutrals each followed by a catch trial)</t>
+  </si>
+  <si>
+    <t>?6 (first 4 with feedback),2 (2 neutrals each followed by a catch trial)</t>
+  </si>
+  <si>
+    <t>Shifts R/L (on catch trials כ,ל)</t>
+  </si>
+  <si>
+    <t>40*1</t>
   </si>
 </sst>
 </file>
@@ -171,12 +219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,8 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,19 +560,19 @@
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -555,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -567,50 +625,89 @@
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>500</v>
+      </c>
+      <c r="P2">
+        <v>300</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="O2">
-        <v>300</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -622,10 +719,10 @@
         <v>1400</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -633,117 +730,416 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="P3">
+        <v>300</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5">
+        <v>300</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
         <v>30000</v>
       </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="K5" s="6" t="s">
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7">
         <v>2000</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>24</v>
+      <c r="Q7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
       <c r="D13">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="F13">
         <v>3000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Tasks Details.xlsx
+++ b/Project/Tasks Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\stp-project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4666F-5398-4732-BC91-50CAFA419A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373C258-86C9-4087-8042-25FFFE6747CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -132,9 +132,6 @@
     <t>נכון/לא נכון</t>
   </si>
   <si>
-    <t>Change block time - afact</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -196,13 +193,26 @@
   </si>
   <si>
     <t>40*1</t>
+  </si>
+  <si>
+    <t>BLOCK_CHANGE_WAIT_TIME</t>
+  </si>
+  <si>
+    <t>לאשר עם עמית</t>
+  </si>
+  <si>
+    <t>BETWEEN_STPS_RANDOM_DELAY = [400, 600, 1000, 1200, 1400, 1800, 2000]
+RANDOM_RESPONSES_TO_CONTINUE = [2, 3, 4] # how many responses should be given for moving toward next stp trial</t>
+  </si>
+  <si>
+    <t>?300000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +224,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>20</v>
@@ -633,7 +656,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -645,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -654,19 +677,19 @@
         <v>1000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -687,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -704,10 +727,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -719,10 +742,10 @@
         <v>1400</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -731,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3">
         <v>300</v>
@@ -745,8 +768,8 @@
       <c r="R3">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>300000</v>
+      <c r="S3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -763,22 +786,22 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>25</v>
@@ -787,25 +810,25 @@
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -822,25 +845,25 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -849,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5">
         <v>300</v>
@@ -863,8 +886,8 @@
       <c r="R5">
         <v>2</v>
       </c>
-      <c r="S5">
-        <v>30000</v>
+      <c r="S5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -881,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -890,22 +913,22 @@
         <v>1000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -923,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -940,22 +963,22 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -967,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7">
         <v>2000</v>
@@ -982,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -999,48 +1022,48 @@
         <v>80</v>
       </c>
       <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="11">
         <v>30000</v>
       </c>
     </row>
@@ -1058,49 +1081,49 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1130,7 +1153,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>300000</v>
@@ -1141,6 +1164,32 @@
       <c r="G13" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Tasks Details.xlsx
+++ b/Project/Tasks Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\stp-project\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\stp-project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373C258-86C9-4087-8042-25FFFE6747CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE21128-47B3-4AE3-B258-AC50EBE0AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>change to</t>
   </si>
   <si>
-    <t>noe its</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>?300000</t>
+  </si>
+  <si>
+    <t>now its</t>
   </si>
 </sst>
 </file>
@@ -574,28 +574,28 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="13" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,15 +648,15 @@
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>1000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -704,16 +704,16 @@
         <v>300</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -727,10 +727,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -742,10 +742,10 @@
         <v>1400</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -754,25 +754,25 @@
         <v>1</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3">
         <v>300</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -786,22 +786,22 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>25</v>
@@ -810,28 +810,28 @@
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -845,25 +845,25 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5">
         <v>300</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5">
         <v>2</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>1000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6">
         <v>300</v>
@@ -940,16 +940,16 @@
         <v>300</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -963,22 +963,22 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -990,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7">
         <v>2000</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1022,43 +1022,43 @@
         <v>80</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -1067,7 +1067,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,52 +1081,52 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1134,26 +1134,26 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>300000</v>
@@ -1162,33 +1162,33 @@
         <v>3000</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
   </sheetData>

--- a/Project/Tasks Details.xlsx
+++ b/Project/Tasks Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\stp-project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE21128-47B3-4AE3-B258-AC50EBE0AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C047B-3F48-4AEB-A3FD-3F1217AEDF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -165,15 +165,9 @@
     <t>3 (all 8 practice trials are practice 3)</t>
   </si>
   <si>
-    <t>2?</t>
-  </si>
-  <si>
     <t>N blocks</t>
   </si>
   <si>
-    <t>1?</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
   </si>
   <si>
     <t>6 (first 4 with feedback),2 (2 neutrals each followed by a catch trial)</t>
-  </si>
-  <si>
-    <t>?6 (first 4 with feedback),2 (2 neutrals each followed by a catch trial)</t>
   </si>
   <si>
     <t>Shifts R/L (on catch trials כ,ל)</t>
@@ -202,10 +193,19 @@
 RANDOM_RESPONSES_TO_CONTINUE = [2, 3, 4] # how many responses should be given for moving toward next stp trial</t>
   </si>
   <si>
-    <t>?300000</t>
-  </si>
-  <si>
     <t>now its</t>
+  </si>
+  <si>
+    <t>לבטל שני בלוקים</t>
+  </si>
+  <si>
+    <t>לעשות אימון לDCT Post - אולי קצר</t>
+  </si>
+  <si>
+    <t>כמות טריילים זהה ביןBMM לבין AFACT - לבדוק כמה זמן כל אחד לוקח מומה ההבדל</t>
+  </si>
+  <si>
+    <t>להמיר את ה-BMM לגבי מעבר טריילים שיהיה בכמה רמות של מרווחי זמן ושהמשפט הבא יהיה רנדומלי</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,9 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,6 +288,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,31 +570,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J19" sqref="D19:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="14" width="11.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="13" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,13 +647,13 @@
         <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -685,11 +684,11 @@
       <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>53</v>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -713,7 +712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -766,13 +765,13 @@
         <v>33</v>
       </c>
       <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -824,14 +823,14 @@
       <c r="Q4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>48</v>
+      <c r="R4" s="10">
+        <v>1</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -884,13 +883,13 @@
         <v>33</v>
       </c>
       <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -921,14 +920,14 @@
       <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>46</v>
+      <c r="K6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -949,7 +948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1063,11 +1062,11 @@
       <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1099,7 +1098,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>34</v>
@@ -1126,7 +1125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1134,10 +1133,10 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1151,9 +1150,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>300000</v>
@@ -1165,31 +1164,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="J21" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Tasks Details.xlsx
+++ b/Project/Tasks Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\stp-project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C047B-3F48-4AEB-A3FD-3F1217AEDF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99746779-1DF3-45EE-AC6A-BD545ECC7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -196,16 +196,13 @@
     <t>now its</t>
   </si>
   <si>
-    <t>לבטל שני בלוקים</t>
-  </si>
-  <si>
     <t>לעשות אימון לDCT Post - אולי קצר</t>
   </si>
   <si>
     <t>כמות טריילים זהה ביןBMM לבין AFACT - לבדוק כמה זמן כל אחד לוקח מומה ההבדל</t>
   </si>
   <si>
-    <t>להמיר את ה-BMM לגבי מעבר טריילים שיהיה בכמה רמות של מרווחי זמן ושהמשפט הבא יהיה רנדומלי</t>
+    <t>--- נריץ ונבדוק ----</t>
   </si>
 </sst>
 </file>
@@ -263,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,6 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +571,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J19" sqref="D19:J25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,28 +1181,27 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="J19" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+      <c r="F21" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="J25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
